--- a/data/trans_bre/P2405-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P2405-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,24%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 0,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; -0,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; -0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; -0,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 85,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,0%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; -0,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; -0,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; -0,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -35,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 21,98</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,24%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 0,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; -0,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; -0,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -14,64</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,18%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; -0,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; -0,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; -0,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,71; 9,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,07; -63,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,14; -51,74</t>
         </is>
       </c>
     </row>
